--- a/data/trans_dic/P36B02_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B02_R-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.9325925738729337</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.8825095973699417</v>
+        <v>0.8825095973699416</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.918096958612368</v>
+        <v>0.9172394215073245</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9222224275179026</v>
+        <v>0.9240709503208187</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9229369948677051</v>
+        <v>0.9244915063424481</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7930028555731055</v>
+        <v>0.7958178721671685</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9086038039813528</v>
+        <v>0.9045173116227966</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8960266269783728</v>
+        <v>0.8948708697020906</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8869221378288943</v>
+        <v>0.8856566767696412</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8610704399864446</v>
+        <v>0.8613214473081257</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9211468394394791</v>
+        <v>0.918975852100314</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.9169454853335358</v>
+        <v>0.9178068131303022</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.913104969172973</v>
+        <v>0.9127007367994519</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.8399802896903051</v>
+        <v>0.8415847434568329</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9581257654790675</v>
+        <v>0.9584170557518832</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9650290101625978</v>
+        <v>0.9650678177562236</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.96757811483457</v>
+        <v>0.9688884057673757</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9108343600646954</v>
+        <v>0.9062412168620301</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9542170431937654</v>
+        <v>0.9529566335326976</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9479234155801471</v>
+        <v>0.9465502771646094</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9412941553058591</v>
+        <v>0.939031262991214</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9424289223805163</v>
+        <v>0.9400928033235589</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.952790632912364</v>
+        <v>0.9500069614611238</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9497995281011788</v>
+        <v>0.9506915793423</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9477320878404468</v>
+        <v>0.9479260292233915</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9164980598069495</v>
+        <v>0.9151825144181333</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.8941403860947237</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8694870227952648</v>
+        <v>0.8694870227952649</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.9439255326231292</v>
@@ -821,7 +821,7 @@
         <v>0.9375495428572713</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.891518080374493</v>
+        <v>0.8915180803744932</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.9429594354039456</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9210360058813865</v>
+        <v>0.9217406285719518</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.906684672147111</v>
+        <v>0.9053736119695404</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.867833903261727</v>
+        <v>0.8646256362962982</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8233822619869952</v>
+        <v>0.8278683454844723</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9200317582726943</v>
+        <v>0.9233209525182433</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8925574269459423</v>
+        <v>0.890457750453298</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.9182955421652129</v>
+        <v>0.9181827881058601</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8591461858812953</v>
+        <v>0.862241197460489</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.930655585532866</v>
+        <v>0.9283964709300294</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.9072480426164811</v>
+        <v>0.9066999868597477</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8968189780814804</v>
+        <v>0.8985467733034219</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.8540180745197971</v>
+        <v>0.8556715979088608</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9570277794805827</v>
+        <v>0.9577919164186142</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9491978174980421</v>
+        <v>0.9470529763960461</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9171931658246992</v>
+        <v>0.9171547432205939</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9055192006999089</v>
+        <v>0.906444652686375</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9587243587236821</v>
+        <v>0.9616883081337784</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9398896710976813</v>
+        <v>0.9401886306026163</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9560871307464874</v>
+        <v>0.9573576067180052</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9206526815410796</v>
+        <v>0.9195049008641712</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9557139536464444</v>
+        <v>0.9548616795321088</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9378663526400814</v>
+        <v>0.9388921275363735</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9300596846138098</v>
+        <v>0.9301736001571236</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9015502136551723</v>
+        <v>0.9029713568261495</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8913088619712166</v>
+        <v>0.8922707272500632</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9146586524981443</v>
+        <v>0.9139417881175353</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8792202951627739</v>
+        <v>0.8798783723583826</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8455344227061131</v>
+        <v>0.8426551875877518</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9241692337889482</v>
+        <v>0.9253033105583017</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9176495583700861</v>
+        <v>0.921638495150499</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9206681358756202</v>
+        <v>0.9220330339220416</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8461741467417135</v>
+        <v>0.8508751616661451</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9163665868237574</v>
+        <v>0.9154656498707833</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.9226891985878082</v>
+        <v>0.9241247162611024</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.9070644441940295</v>
+        <v>0.908373147285831</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.8557243117374694</v>
+        <v>0.8570295745608341</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9373301017484013</v>
+        <v>0.9353531987680425</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9540942871267425</v>
+        <v>0.9516145114501342</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9275233746996405</v>
+        <v>0.9291542207089354</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9030297609683232</v>
+        <v>0.9025912343392768</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9601726156964526</v>
+        <v>0.9602243857874141</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9563279563503361</v>
+        <v>0.9569517593187694</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9572294211871875</v>
+        <v>0.9560925721273892</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8958917801096636</v>
+        <v>0.8960059689151362</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9447841713222964</v>
+        <v>0.9457359769181934</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9497608836841214</v>
+        <v>0.9517978933893937</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9368121277434276</v>
+        <v>0.9377196818346002</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.8935969387391639</v>
+        <v>0.8927116929910105</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.8960613584934122</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8734820935085185</v>
+        <v>0.8734820935085182</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.9433247449280258</v>
@@ -1105,7 +1105,7 @@
         <v>0.9123093589810994</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.8821789921597004</v>
+        <v>0.8821789921597005</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8854487597376657</v>
+        <v>0.8832245306896255</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8955775591808324</v>
+        <v>0.8977761363997625</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8671701079972829</v>
+        <v>0.8703546968352271</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8414552202355958</v>
+        <v>0.8465170396681174</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9227231618132307</v>
+        <v>0.9212672395714171</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9140183991508549</v>
+        <v>0.9138094043211491</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9057068724734393</v>
+        <v>0.9066889157895052</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8711257115167037</v>
+        <v>0.8705251914148353</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9122492863014025</v>
+        <v>0.9105019948395376</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.915141037542381</v>
+        <v>0.9141768279199459</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.8928413782154683</v>
+        <v>0.8954739040086102</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.8658704936511918</v>
+        <v>0.8647173642632603</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9417315482461979</v>
+        <v>0.9385410368752229</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9432058441914219</v>
+        <v>0.9455721962843173</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9188693738225707</v>
+        <v>0.9193774237048276</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8966107399282713</v>
+        <v>0.8983770477266795</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9625533705116188</v>
+        <v>0.9612183010383215</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9571679150880446</v>
+        <v>0.9579622895658787</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.946671035185333</v>
+        <v>0.9458247482358493</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9080417326479017</v>
+        <v>0.9079826320257133</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9436218951947701</v>
+        <v>0.9446178594642812</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9451200614805256</v>
+        <v>0.9448094462140726</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9265342863254735</v>
+        <v>0.9288110069569216</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.8980697646330337</v>
+        <v>0.8962232591120681</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.9397686188264093</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.8721726637705095</v>
+        <v>0.8721726637705096</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.9216192541956307</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8917397266982081</v>
+        <v>0.8917743034374449</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8772874928015134</v>
+        <v>0.8770905006529369</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8902192832051542</v>
+        <v>0.8913067634293868</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8255898545704283</v>
+        <v>0.8236077162763865</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8898242369939743</v>
+        <v>0.8941295554538113</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9343382272956251</v>
+        <v>0.9339118110597918</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9115721380950743</v>
+        <v>0.911603958838022</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8494861643424571</v>
+        <v>0.8477984000764239</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9005405286501984</v>
+        <v>0.8990233981440471</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.914695303311577</v>
+        <v>0.9156940282461172</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.9105067974076183</v>
+        <v>0.91196981457462</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.8436369225333902</v>
+        <v>0.8449207596561596</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9469246770568831</v>
+        <v>0.9437307460740066</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9342320392795829</v>
+        <v>0.9353466897803855</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9419856452827559</v>
+        <v>0.9445634401247534</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8808932417439757</v>
+        <v>0.8810039976772256</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9456025944627044</v>
+        <v>0.9489082089593482</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9738357959143107</v>
+        <v>0.9748533879087695</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9586503082424084</v>
+        <v>0.9601158626689691</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.889565015771471</v>
+        <v>0.8922185331377673</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.937909815458407</v>
+        <v>0.938286091196835</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.949868076035321</v>
+        <v>0.9501472452504972</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9442892713307094</v>
+        <v>0.9472846332936319</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.8792536210526488</v>
+        <v>0.8796210376007341</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.9480567096196345</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.8991798243241952</v>
+        <v>0.899179824324195</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.9358813866428982</v>
@@ -1377,7 +1377,7 @@
         <v>0.9543513077581409</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.8912449704512435</v>
+        <v>0.8912449704512437</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8802548807368559</v>
+        <v>0.8825231890133113</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9264962544083468</v>
+        <v>0.9269059134575618</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9347650407220879</v>
+        <v>0.9357620288361671</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8521156694808038</v>
+        <v>0.8511553599840223</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9269666117619679</v>
+        <v>0.9235832547879378</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.9560016563309318</v>
+        <v>0.9508089661749186</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9238521899047719</v>
+        <v>0.9224872904743877</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.8770163142495784</v>
+        <v>0.8782816814759897</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.9162200362231682</v>
+        <v>0.9173399343651869</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.9480049716400851</v>
+        <v>0.9481329410225118</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.9380063748345863</v>
+        <v>0.9366242831724767</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.8719986470034417</v>
+        <v>0.8714580810293223</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9456758976372558</v>
+        <v>0.9461047634867217</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9777807206921489</v>
+        <v>0.9775855293511868</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9781828468350046</v>
+        <v>0.976770149808434</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9097185834326303</v>
+        <v>0.9077475362845357</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9684962071771757</v>
+        <v>0.9697097102227245</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9883895858050176</v>
+        <v>0.9865615504095123</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9677050931718494</v>
+        <v>0.9675028002461076</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9195425825708858</v>
+        <v>0.9210086535560783</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.9529888080059381</v>
+        <v>0.9544437074398696</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.977234870914811</v>
+        <v>0.978863713859905</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.969424917295447</v>
+        <v>0.9675998513400816</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.9076375814555959</v>
+        <v>0.9087532717523937</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.9815482439156717</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.9066234884503749</v>
+        <v>0.9066234884503748</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.9631182790828389</v>
@@ -1513,7 +1513,7 @@
         <v>0.9663219928854953</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.9025617866981973</v>
+        <v>0.9025617866981972</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.918551712409685</v>
+        <v>0.9147550670368884</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9035544481008513</v>
+        <v>0.9014033574541552</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9134645239995166</v>
+        <v>0.91004758239937</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8664620734563351</v>
+        <v>0.8647351232189383</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9452001109686604</v>
+        <v>0.9431721635569901</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9341713965949858</v>
+        <v>0.9344710820881023</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9601972132537619</v>
+        <v>0.9574258497909429</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.8852505922324031</v>
+        <v>0.8849507689664947</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9454055542195313</v>
+        <v>0.9426798084063761</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.9322581766552651</v>
+        <v>0.9344981122405638</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.9488878991637446</v>
+        <v>0.9496281654876425</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.8852186265301137</v>
+        <v>0.8835758465905851</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9761210054368402</v>
+        <v>0.9750525394346184</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9701018793803273</v>
+        <v>0.970257268212982</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9660869739896504</v>
+        <v>0.9655705588120698</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9240742031533193</v>
+        <v>0.9227428453693129</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9854144546405857</v>
+        <v>0.983415915966797</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9770967378853561</v>
+        <v>0.9771782084445446</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9912194757194239</v>
+        <v>0.9912960511267261</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.925937402782174</v>
+        <v>0.9283569789135833</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9776628144131198</v>
+        <v>0.9762352215884914</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.9691235710537559</v>
+        <v>0.9692134651774506</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.9782417518299751</v>
+        <v>0.9781594942818769</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.9194587910565679</v>
+        <v>0.9192993281207116</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.9405541055985142</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.8896405523825281</v>
+        <v>0.8896405523825283</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.9360886533320603</v>
@@ -1649,7 +1649,7 @@
         <v>0.9292952572281248</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.8809234717780878</v>
+        <v>0.8809234717780879</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9193922347015256</v>
+        <v>0.9183905642118716</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.9240131857381787</v>
+        <v>0.923304948838276</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9065339769979773</v>
+        <v>0.9066579647860566</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.8593856237352596</v>
+        <v>0.8583036144114378</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.9348332449852381</v>
+        <v>0.9345997695830968</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.9327160412204542</v>
+        <v>0.9329762086041228</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.9331931897812016</v>
+        <v>0.9323592392575535</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.8805629845986034</v>
+        <v>0.8801141115018345</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.9300440490684013</v>
+        <v>0.9303036556572525</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.931228176628615</v>
+        <v>0.9308239186155596</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.9222877870970893</v>
+        <v>0.9226385573346354</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.8733532619272564</v>
+        <v>0.8730156327073653</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9380101242385006</v>
+        <v>0.9362691151065636</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9424960034336447</v>
+        <v>0.9409200994019693</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.926331129188978</v>
+        <v>0.9270995234120417</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.8848797962498405</v>
+        <v>0.8848742394802361</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.9506658952196159</v>
+        <v>0.9511167037688082</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.9491461774348536</v>
+        <v>0.9488756013443324</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.9489431041359669</v>
+        <v>0.94822016739912</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.8992724755102113</v>
+        <v>0.8976410528258651</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.9420879043686058</v>
+        <v>0.9423792449104453</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.9435758011996198</v>
+        <v>0.9428569902130046</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.9354727953366554</v>
+        <v>0.9351287688346068</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.8891553239784059</v>
+        <v>0.8889815300828143</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>453599</v>
+        <v>453175</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>417982</v>
+        <v>418819</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>385265</v>
+        <v>385914</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>323381</v>
+        <v>324529</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>424762</v>
+        <v>422852</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>385498</v>
+        <v>385000</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>351004</v>
+        <v>350503</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>312148</v>
+        <v>312239</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>885732</v>
+        <v>883644</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>810087</v>
+        <v>810848</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>742527</v>
+        <v>742198</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>647041</v>
+        <v>648277</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>473375</v>
+        <v>473519</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>437383</v>
+        <v>437401</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>403900</v>
+        <v>404447</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>371432</v>
+        <v>369559</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>446086</v>
+        <v>445497</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>407825</v>
+        <v>407234</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>372522</v>
+        <v>371626</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>341642</v>
+        <v>340795</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>916159</v>
+        <v>913482</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>839113</v>
+        <v>839901</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>770685</v>
+        <v>770843</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>705983</v>
+        <v>704970</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>676599</v>
+        <v>677117</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>622971</v>
+        <v>622070</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>511654</v>
+        <v>509763</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>392663</v>
+        <v>394802</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>575474</v>
+        <v>577532</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>544688</v>
+        <v>543406</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>517500</v>
+        <v>517436</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>430504</v>
+        <v>432054</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1265786</v>
+        <v>1262713</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1177011</v>
+        <v>1176300</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1034139</v>
+        <v>1036131</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>835207</v>
+        <v>836824</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>703039</v>
+        <v>703601</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>652181</v>
+        <v>650708</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>540755</v>
+        <v>540732</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>431833</v>
+        <v>432274</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>599676</v>
+        <v>601530</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>573572</v>
+        <v>573755</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>538797</v>
+        <v>539513</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>461323</v>
+        <v>460748</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1299868</v>
+        <v>1298708</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1216733</v>
+        <v>1218064</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1072469</v>
+        <v>1072601</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>881692</v>
+        <v>883082</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>569250</v>
+        <v>569865</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>623672</v>
+        <v>623183</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>586545</v>
+        <v>586984</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>524939</v>
+        <v>523152</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>636394</v>
+        <v>637175</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>649677</v>
+        <v>652501</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>608106</v>
+        <v>609007</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>526438</v>
+        <v>529363</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1216274</v>
+        <v>1215078</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1282392</v>
+        <v>1284387</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1204242</v>
+        <v>1205980</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1063645</v>
+        <v>1065267</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>598643</v>
+        <v>597380</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>650562</v>
+        <v>648871</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>618769</v>
+        <v>619857</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>560634</v>
+        <v>560362</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>661186</v>
+        <v>661222</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>677060</v>
+        <v>677502</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>632255</v>
+        <v>631504</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>557369</v>
+        <v>557440</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1253992</v>
+        <v>1255256</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1320018</v>
+        <v>1322849</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1243736</v>
+        <v>1244941</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1110720</v>
+        <v>1109619</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>459678</v>
+        <v>458523</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>550437</v>
+        <v>551788</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>559294</v>
+        <v>561348</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>589538</v>
+        <v>593084</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>475795</v>
+        <v>475044</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>562282</v>
+        <v>562154</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>585984</v>
+        <v>586620</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>641580</v>
+        <v>641137</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>943986</v>
+        <v>942177</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1125433</v>
+        <v>1124247</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1153512</v>
+        <v>1156913</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1244353</v>
+        <v>1242696</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>488897</v>
+        <v>487241</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>579710</v>
+        <v>581165</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>592639</v>
+        <v>592966</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>628181</v>
+        <v>629418</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>496333</v>
+        <v>495645</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>588827</v>
+        <v>589315</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>612488</v>
+        <v>611940</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>668768</v>
+        <v>668725</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>976450</v>
+        <v>977480</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1162301</v>
+        <v>1161919</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1197042</v>
+        <v>1199983</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1290627</v>
+        <v>1287973</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>344845</v>
+        <v>344858</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>376733</v>
+        <v>376648</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>425452</v>
+        <v>425972</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>503070</v>
+        <v>501862</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>359477</v>
+        <v>361216</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>417420</v>
+        <v>417230</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>452914</v>
+        <v>452930</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>517214</v>
+        <v>516186</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>712054</v>
+        <v>710854</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>801442</v>
+        <v>802317</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>887532</v>
+        <v>888958</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1027720</v>
+        <v>1029284</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>366185</v>
+        <v>364950</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>401186</v>
+        <v>401665</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>450192</v>
+        <v>451424</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>536769</v>
+        <v>536836</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>382010</v>
+        <v>383346</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>435066</v>
+        <v>435521</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>476304</v>
+        <v>477033</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>541616</v>
+        <v>543232</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>741602</v>
+        <v>741899</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>832260</v>
+        <v>832505</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>920462</v>
+        <v>923382</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1071109</v>
+        <v>1071556</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>257548</v>
+        <v>258211</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>287016</v>
+        <v>287142</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>312520</v>
+        <v>312853</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>346879</v>
+        <v>346488</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>317888</v>
+        <v>316728</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>337478</v>
+        <v>335645</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>348996</v>
+        <v>348481</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>385156</v>
+        <v>385711</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>582273</v>
+        <v>582985</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>628335</v>
+        <v>628420</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>667947</v>
+        <v>666963</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>737925</v>
+        <v>737468</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>276689</v>
+        <v>276814</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>302903</v>
+        <v>302842</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>327036</v>
+        <v>326564</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>370328</v>
+        <v>369526</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>332130</v>
+        <v>332546</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>348911</v>
+        <v>348266</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>365562</v>
+        <v>365486</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>403832</v>
+        <v>404476</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>605641</v>
+        <v>606565</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>647708</v>
+        <v>648788</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>690320</v>
+        <v>689020</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>768085</v>
+        <v>769029</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>192788</v>
+        <v>191992</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>225754</v>
+        <v>225217</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>233944</v>
+        <v>233069</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>268775</v>
+        <v>268239</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>315610</v>
+        <v>314933</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>363373</v>
+        <v>363490</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>384241</v>
+        <v>383132</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>411295</v>
+        <v>411156</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>514103</v>
+        <v>512621</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>595554</v>
+        <v>596985</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>622731</v>
+        <v>623217</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>685874</v>
+        <v>684601</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>204871</v>
+        <v>204647</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>242381</v>
+        <v>242420</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>247421</v>
+        <v>247288</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>286646</v>
+        <v>286233</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>329038</v>
+        <v>328370</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>380070</v>
+        <v>380102</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>396655</v>
+        <v>396686</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>430199</v>
+        <v>431323</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>531644</v>
+        <v>530868</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>619105</v>
+        <v>619163</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>641996</v>
+        <v>641942</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>712403</v>
+        <v>712280</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>3011617</v>
+        <v>3008336</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3165544</v>
+        <v>3163118</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>3070837</v>
+        <v>3071257</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>3036005</v>
+        <v>3032182</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>3157927</v>
+        <v>3157139</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>3313366</v>
+        <v>3314291</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>3304974</v>
+        <v>3302020</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>3288779</v>
+        <v>3287103</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>6188258</v>
+        <v>6189986</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>6498343</v>
+        <v>6495522</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>6390553</v>
+        <v>6392984</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>6347201</v>
+        <v>6344748</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>3072603</v>
+        <v>3066900</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>3228864</v>
+        <v>3223465</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>3137899</v>
+        <v>3140501</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>3126070</v>
+        <v>3126050</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>3211411</v>
+        <v>3212934</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>3371733</v>
+        <v>3370771</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>3360753</v>
+        <v>3358193</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>3358657</v>
+        <v>3352564</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>6268395</v>
+        <v>6270333</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>6584508</v>
+        <v>6579492</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>6481913</v>
+        <v>6479529</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>6462045</v>
+        <v>6460782</v>
       </c>
     </row>
     <row r="36">
